--- a/slides/data/journal_1876.xlsx
+++ b/slides/data/journal_1876.xlsx
@@ -16,6 +16,18 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="D215">
+      <text>
+        <t xml:space="preserve">Boothbay Harbor
+	-Soph Rexing</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D224">
+      <text>
+        <t xml:space="preserve">Somes Sound
+	-Soph Rexing</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="D157">
       <text>
         <t xml:space="preserve">verify this, he's only seen it technically
@@ -3248,38 +3260,54 @@
   </si>
   <si>
     <r>
-      <rPr/>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
       <t xml:space="preserve">Calm in morning took the Steamboat. </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Lamoset. </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
       <t xml:space="preserve">and went to </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Bath </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
       <t xml:space="preserve">arrived at </t>
     </r>
     <r>
       <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t>11.Am</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
       <t>. At 4.P.M took the Cars and went to Rockland Stoped at the Lindsey House. over night wind Southerly PM</t>
     </r>
   </si>
@@ -3384,7 +3412,7 @@
     <t>The wind Southerly made centre board for G.W. Tracy. dora In the afternoon went Somes Sound and back in the Steamer Charles Houton on Excurtion</t>
   </si>
   <si>
-    <t>Some Sound</t>
+    <t>Somes Sound</t>
   </si>
   <si>
     <t>08/11/1876</t>
@@ -5243,7 +5271,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -5270,10 +5298,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5289,7 +5313,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5323,9 +5347,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -5349,7 +5370,7 @@
     <xdr:ext cx="2314575" cy="1562100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5377,7 +5398,7 @@
     <xdr:ext cx="2343150" cy="1676400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5405,7 +5426,7 @@
     <xdr:ext cx="2343150" cy="1638300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -21727,7 +21748,7 @@
       <c r="B216" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="C216" s="11" t="s">
+      <c r="C216" s="10" t="s">
         <v>517</v>
       </c>
       <c r="D216" s="7" t="s">
@@ -26847,7 +26868,7 @@
       <c r="AZ284" s="5"/>
     </row>
     <row r="285">
-      <c r="A285" s="12" t="s">
+      <c r="A285" s="11" t="s">
         <v>657</v>
       </c>
       <c r="B285" s="7" t="s">
@@ -26923,7 +26944,7 @@
       <c r="AZ285" s="5"/>
     </row>
     <row r="286">
-      <c r="A286" s="12" t="s">
+      <c r="A286" s="11" t="s">
         <v>660</v>
       </c>
       <c r="B286" s="7" t="s">
@@ -26999,7 +27020,7 @@
       <c r="AZ286" s="5"/>
     </row>
     <row r="287">
-      <c r="A287" s="12" t="s">
+      <c r="A287" s="11" t="s">
         <v>662</v>
       </c>
       <c r="B287" s="7" t="s">
@@ -27075,7 +27096,7 @@
       <c r="AZ287" s="5"/>
     </row>
     <row r="288">
-      <c r="A288" s="12" t="s">
+      <c r="A288" s="11" t="s">
         <v>664</v>
       </c>
       <c r="B288" s="7" t="s">
@@ -27151,7 +27172,7 @@
       <c r="AZ288" s="5"/>
     </row>
     <row r="289">
-      <c r="A289" s="12" t="s">
+      <c r="A289" s="11" t="s">
         <v>666</v>
       </c>
       <c r="B289" s="7" t="s">
@@ -27225,7 +27246,7 @@
       <c r="AZ289" s="5"/>
     </row>
     <row r="290">
-      <c r="A290" s="12" t="s">
+      <c r="A290" s="11" t="s">
         <v>668</v>
       </c>
       <c r="B290" s="7" t="s">
@@ -27299,7 +27320,7 @@
       <c r="AZ290" s="5"/>
     </row>
     <row r="291">
-      <c r="A291" s="12" t="s">
+      <c r="A291" s="11" t="s">
         <v>670</v>
       </c>
       <c r="B291" s="7" t="s">
@@ -27375,7 +27396,7 @@
       <c r="AZ291" s="5"/>
     </row>
     <row r="292">
-      <c r="A292" s="12" t="s">
+      <c r="A292" s="11" t="s">
         <v>672</v>
       </c>
       <c r="B292" s="7" t="s">
@@ -27451,7 +27472,7 @@
       <c r="AZ292" s="5"/>
     </row>
     <row r="293">
-      <c r="A293" s="12" t="s">
+      <c r="A293" s="11" t="s">
         <v>674</v>
       </c>
       <c r="B293" s="7" t="s">
@@ -27525,7 +27546,7 @@
       <c r="AZ293" s="5"/>
     </row>
     <row r="294">
-      <c r="A294" s="12" t="s">
+      <c r="A294" s="11" t="s">
         <v>676</v>
       </c>
       <c r="B294" s="7" t="s">
@@ -27601,7 +27622,7 @@
       <c r="AZ294" s="5"/>
     </row>
     <row r="295">
-      <c r="A295" s="12" t="s">
+      <c r="A295" s="11" t="s">
         <v>678</v>
       </c>
       <c r="B295" s="7" t="s">
@@ -27677,7 +27698,7 @@
       <c r="AZ295" s="5"/>
     </row>
     <row r="296">
-      <c r="A296" s="12" t="s">
+      <c r="A296" s="11" t="s">
         <v>681</v>
       </c>
       <c r="B296" s="7" t="s">
@@ -27751,7 +27772,7 @@
       <c r="AZ296" s="5"/>
     </row>
     <row r="297">
-      <c r="A297" s="12" t="s">
+      <c r="A297" s="11" t="s">
         <v>683</v>
       </c>
       <c r="B297" s="7" t="s">
@@ -27825,7 +27846,7 @@
       <c r="AZ297" s="5"/>
     </row>
     <row r="298">
-      <c r="A298" s="12" t="s">
+      <c r="A298" s="11" t="s">
         <v>685</v>
       </c>
       <c r="B298" s="7" t="s">
@@ -27899,7 +27920,7 @@
       <c r="AZ298" s="5"/>
     </row>
     <row r="299">
-      <c r="A299" s="12" t="s">
+      <c r="A299" s="11" t="s">
         <v>687</v>
       </c>
       <c r="B299" s="7" t="s">
@@ -27973,7 +27994,7 @@
       <c r="AZ299" s="5"/>
     </row>
     <row r="300">
-      <c r="A300" s="12" t="s">
+      <c r="A300" s="11" t="s">
         <v>689</v>
       </c>
       <c r="B300" s="7" t="s">
@@ -28049,7 +28070,7 @@
       <c r="AZ300" s="5"/>
     </row>
     <row r="301">
-      <c r="A301" s="12" t="s">
+      <c r="A301" s="11" t="s">
         <v>691</v>
       </c>
       <c r="B301" s="7" t="s">
@@ -28123,7 +28144,7 @@
       <c r="AZ301" s="5"/>
     </row>
     <row r="302">
-      <c r="A302" s="12" t="s">
+      <c r="A302" s="11" t="s">
         <v>693</v>
       </c>
       <c r="B302" s="7" t="s">
@@ -28197,7 +28218,7 @@
       <c r="AZ302" s="5"/>
     </row>
     <row r="303">
-      <c r="A303" s="12" t="s">
+      <c r="A303" s="11" t="s">
         <v>695</v>
       </c>
       <c r="B303" s="7" t="s">
@@ -28271,7 +28292,7 @@
       <c r="AZ303" s="5"/>
     </row>
     <row r="304">
-      <c r="A304" s="12" t="s">
+      <c r="A304" s="11" t="s">
         <v>697</v>
       </c>
       <c r="B304" s="7" t="s">
@@ -28345,7 +28366,7 @@
       <c r="AZ304" s="5"/>
     </row>
     <row r="305">
-      <c r="A305" s="12" t="s">
+      <c r="A305" s="11" t="s">
         <v>699</v>
       </c>
       <c r="B305" s="7" t="s">
@@ -28419,7 +28440,7 @@
       <c r="AZ305" s="5"/>
     </row>
     <row r="306">
-      <c r="A306" s="12" t="s">
+      <c r="A306" s="11" t="s">
         <v>701</v>
       </c>
       <c r="B306" s="7" t="s">
@@ -29159,7 +29180,7 @@
       <c r="AZ315" s="5"/>
     </row>
     <row r="316">
-      <c r="A316" s="12" t="s">
+      <c r="A316" s="11" t="s">
         <v>722</v>
       </c>
       <c r="B316" s="7" t="s">
@@ -29233,7 +29254,7 @@
       <c r="AZ316" s="5"/>
     </row>
     <row r="317">
-      <c r="A317" s="12" t="s">
+      <c r="A317" s="11" t="s">
         <v>724</v>
       </c>
       <c r="B317" s="7" t="s">
@@ -29309,7 +29330,7 @@
       <c r="AZ317" s="5"/>
     </row>
     <row r="318">
-      <c r="A318" s="12" t="s">
+      <c r="A318" s="11" t="s">
         <v>727</v>
       </c>
       <c r="B318" s="7" t="s">
@@ -29383,7 +29404,7 @@
       <c r="AZ318" s="5"/>
     </row>
     <row r="319">
-      <c r="A319" s="12" t="s">
+      <c r="A319" s="11" t="s">
         <v>729</v>
       </c>
       <c r="B319" s="7" t="s">
@@ -29457,7 +29478,7 @@
       <c r="AZ319" s="5"/>
     </row>
     <row r="320">
-      <c r="A320" s="12" t="s">
+      <c r="A320" s="11" t="s">
         <v>731</v>
       </c>
       <c r="B320" s="7" t="s">
@@ -29533,7 +29554,7 @@
       <c r="AZ320" s="5"/>
     </row>
     <row r="321">
-      <c r="A321" s="12" t="s">
+      <c r="A321" s="11" t="s">
         <v>733</v>
       </c>
       <c r="B321" s="7" t="s">
@@ -29607,7 +29628,7 @@
       <c r="AZ321" s="5"/>
     </row>
     <row r="322">
-      <c r="A322" s="12" t="s">
+      <c r="A322" s="11" t="s">
         <v>735</v>
       </c>
       <c r="B322" s="7" t="s">
@@ -29683,7 +29704,7 @@
       <c r="AZ322" s="5"/>
     </row>
     <row r="323">
-      <c r="A323" s="12" t="s">
+      <c r="A323" s="11" t="s">
         <v>738</v>
       </c>
       <c r="B323" s="7" t="s">
@@ -29759,7 +29780,7 @@
       <c r="AZ323" s="5"/>
     </row>
     <row r="324">
-      <c r="A324" s="12" t="s">
+      <c r="A324" s="11" t="s">
         <v>740</v>
       </c>
       <c r="B324" s="7" t="s">
@@ -29833,7 +29854,7 @@
       <c r="AZ324" s="5"/>
     </row>
     <row r="325">
-      <c r="A325" s="12" t="s">
+      <c r="A325" s="11" t="s">
         <v>742</v>
       </c>
       <c r="B325" s="7" t="s">
@@ -29909,7 +29930,7 @@
       <c r="AZ325" s="5"/>
     </row>
     <row r="326">
-      <c r="A326" s="12" t="s">
+      <c r="A326" s="11" t="s">
         <v>745</v>
       </c>
       <c r="B326" s="7" t="s">
@@ -29985,7 +30006,7 @@
       <c r="AZ326" s="5"/>
     </row>
     <row r="327">
-      <c r="A327" s="12" t="s">
+      <c r="A327" s="11" t="s">
         <v>748</v>
       </c>
       <c r="B327" s="7" t="s">
@@ -30059,7 +30080,7 @@
       <c r="AZ327" s="5"/>
     </row>
     <row r="328">
-      <c r="A328" s="12" t="s">
+      <c r="A328" s="11" t="s">
         <v>750</v>
       </c>
       <c r="B328" s="7" t="s">
@@ -30133,7 +30154,7 @@
       <c r="AZ328" s="5"/>
     </row>
     <row r="329">
-      <c r="A329" s="12" t="s">
+      <c r="A329" s="11" t="s">
         <v>752</v>
       </c>
       <c r="B329" s="7" t="s">
@@ -30207,7 +30228,7 @@
       <c r="AZ329" s="5"/>
     </row>
     <row r="330">
-      <c r="A330" s="12" t="s">
+      <c r="A330" s="11" t="s">
         <v>754</v>
       </c>
       <c r="B330" s="7" t="s">
@@ -30281,7 +30302,7 @@
       <c r="AZ330" s="5"/>
     </row>
     <row r="331">
-      <c r="A331" s="12" t="s">
+      <c r="A331" s="11" t="s">
         <v>756</v>
       </c>
       <c r="B331" s="7" t="s">
@@ -30355,7 +30376,7 @@
       <c r="AZ331" s="5"/>
     </row>
     <row r="332">
-      <c r="A332" s="12" t="s">
+      <c r="A332" s="11" t="s">
         <v>758</v>
       </c>
       <c r="B332" s="7" t="s">
@@ -30429,7 +30450,7 @@
       <c r="AZ332" s="5"/>
     </row>
     <row r="333">
-      <c r="A333" s="12" t="s">
+      <c r="A333" s="11" t="s">
         <v>760</v>
       </c>
       <c r="B333" s="7" t="s">
@@ -30503,7 +30524,7 @@
       <c r="AZ333" s="5"/>
     </row>
     <row r="334">
-      <c r="A334" s="12" t="s">
+      <c r="A334" s="11" t="s">
         <v>762</v>
       </c>
       <c r="B334" s="7" t="s">
@@ -30577,7 +30598,7 @@
       <c r="AZ334" s="5"/>
     </row>
     <row r="335">
-      <c r="A335" s="12" t="s">
+      <c r="A335" s="11" t="s">
         <v>764</v>
       </c>
       <c r="B335" s="7" t="s">
@@ -30653,7 +30674,7 @@
       <c r="AZ335" s="5"/>
     </row>
     <row r="336">
-      <c r="A336" s="12" t="s">
+      <c r="A336" s="11" t="s">
         <v>767</v>
       </c>
       <c r="B336" s="7" t="s">
@@ -31395,7 +31416,7 @@
       <c r="AZ345" s="5"/>
     </row>
     <row r="346">
-      <c r="A346" s="12" t="s">
+      <c r="A346" s="11" t="s">
         <v>790</v>
       </c>
       <c r="B346" s="7" t="s">
@@ -31471,7 +31492,7 @@
       <c r="AZ346" s="5"/>
     </row>
     <row r="347">
-      <c r="A347" s="12" t="s">
+      <c r="A347" s="11" t="s">
         <v>792</v>
       </c>
       <c r="B347" s="7" t="s">
@@ -31545,7 +31566,7 @@
       <c r="AZ347" s="5"/>
     </row>
     <row r="348">
-      <c r="A348" s="12" t="s">
+      <c r="A348" s="11" t="s">
         <v>794</v>
       </c>
       <c r="B348" s="7" t="s">
@@ -31619,7 +31640,7 @@
       <c r="AZ348" s="5"/>
     </row>
     <row r="349">
-      <c r="A349" s="12" t="s">
+      <c r="A349" s="11" t="s">
         <v>796</v>
       </c>
       <c r="B349" s="7" t="s">
@@ -31693,7 +31714,7 @@
       <c r="AZ349" s="5"/>
     </row>
     <row r="350">
-      <c r="A350" s="12" t="s">
+      <c r="A350" s="11" t="s">
         <v>798</v>
       </c>
       <c r="B350" s="7" t="s">
@@ -31767,7 +31788,7 @@
       <c r="AZ350" s="5"/>
     </row>
     <row r="351">
-      <c r="A351" s="12" t="s">
+      <c r="A351" s="11" t="s">
         <v>800</v>
       </c>
       <c r="B351" s="7" t="s">
@@ -31841,7 +31862,7 @@
       <c r="AZ351" s="5"/>
     </row>
     <row r="352">
-      <c r="A352" s="12" t="s">
+      <c r="A352" s="11" t="s">
         <v>802</v>
       </c>
       <c r="B352" s="7" t="s">
@@ -31915,7 +31936,7 @@
       <c r="AZ352" s="5"/>
     </row>
     <row r="353">
-      <c r="A353" s="12" t="s">
+      <c r="A353" s="11" t="s">
         <v>804</v>
       </c>
       <c r="B353" s="7" t="s">
@@ -31989,7 +32010,7 @@
       <c r="AZ353" s="5"/>
     </row>
     <row r="354">
-      <c r="A354" s="12" t="s">
+      <c r="A354" s="11" t="s">
         <v>806</v>
       </c>
       <c r="B354" s="7" t="s">
@@ -32063,7 +32084,7 @@
       <c r="AZ354" s="5"/>
     </row>
     <row r="355">
-      <c r="A355" s="12" t="s">
+      <c r="A355" s="11" t="s">
         <v>808</v>
       </c>
       <c r="B355" s="7" t="s">
@@ -32137,7 +32158,7 @@
       <c r="AZ355" s="5"/>
     </row>
     <row r="356">
-      <c r="A356" s="12" t="s">
+      <c r="A356" s="11" t="s">
         <v>810</v>
       </c>
       <c r="B356" s="7" t="s">
@@ -32211,7 +32232,7 @@
       <c r="AZ356" s="5"/>
     </row>
     <row r="357">
-      <c r="A357" s="12" t="s">
+      <c r="A357" s="11" t="s">
         <v>812</v>
       </c>
       <c r="B357" s="7" t="s">
@@ -32285,7 +32306,7 @@
       <c r="AZ357" s="5"/>
     </row>
     <row r="358">
-      <c r="A358" s="12" t="s">
+      <c r="A358" s="11" t="s">
         <v>814</v>
       </c>
       <c r="B358" s="7" t="s">
@@ -32359,7 +32380,7 @@
       <c r="AZ358" s="5"/>
     </row>
     <row r="359">
-      <c r="A359" s="12" t="s">
+      <c r="A359" s="11" t="s">
         <v>816</v>
       </c>
       <c r="B359" s="7" t="s">
@@ -32433,7 +32454,7 @@
       <c r="AZ359" s="5"/>
     </row>
     <row r="360">
-      <c r="A360" s="12" t="s">
+      <c r="A360" s="11" t="s">
         <v>818</v>
       </c>
       <c r="B360" s="7" t="s">
@@ -32507,7 +32528,7 @@
       <c r="AZ360" s="5"/>
     </row>
     <row r="361">
-      <c r="A361" s="12" t="s">
+      <c r="A361" s="11" t="s">
         <v>819</v>
       </c>
       <c r="B361" s="7" t="s">
@@ -32583,7 +32604,7 @@
       <c r="AZ361" s="5"/>
     </row>
     <row r="362">
-      <c r="A362" s="12" t="s">
+      <c r="A362" s="11" t="s">
         <v>821</v>
       </c>
       <c r="B362" s="7" t="s">
@@ -32657,7 +32678,7 @@
       <c r="AZ362" s="5"/>
     </row>
     <row r="363">
-      <c r="A363" s="12" t="s">
+      <c r="A363" s="11" t="s">
         <v>823</v>
       </c>
       <c r="B363" s="7" t="s">
@@ -32733,7 +32754,7 @@
       <c r="AZ363" s="5"/>
     </row>
     <row r="364">
-      <c r="A364" s="12" t="s">
+      <c r="A364" s="11" t="s">
         <v>825</v>
       </c>
       <c r="B364" s="7" t="s">
@@ -32809,7 +32830,7 @@
       <c r="AZ364" s="5"/>
     </row>
     <row r="365">
-      <c r="A365" s="12" t="s">
+      <c r="A365" s="11" t="s">
         <v>827</v>
       </c>
       <c r="B365" s="7" t="s">
@@ -32885,7 +32906,7 @@
       <c r="AZ365" s="5"/>
     </row>
     <row r="366">
-      <c r="A366" s="12" t="s">
+      <c r="A366" s="11" t="s">
         <v>829</v>
       </c>
       <c r="B366" s="7" t="s">
@@ -32959,7 +32980,7 @@
       <c r="AZ366" s="5"/>
     </row>
     <row r="367">
-      <c r="A367" s="12" t="s">
+      <c r="A367" s="11" t="s">
         <v>831</v>
       </c>
       <c r="B367" s="7" t="s">
@@ -67238,10 +67259,7 @@
       <formula1>"write,read,read and write,no letter"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink r:id="rId2" ref="C216"/>
-  </hyperlinks>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>